--- a/OnBoard/output/trust/catch/Catch_Trust_60.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_60.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,19 +519,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Blennius ocellaris</t>
+          <t>Arnoglossus thori</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="G4">
-        <v>0.104</v>
+        <v>0.003</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -560,19 +560,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Blennius ocellaris</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="G5">
-        <v>0.037</v>
+        <v>0.104</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -601,16 +601,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Citharus linguatula</t>
+          <t>Buglossidium luteum</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="G6">
-        <v>0.076</v>
+        <v>0.037</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -642,16 +642,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Eutrigla gurnardus</t>
+          <t>Citharus linguatula</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="G7">
-        <v>0.046</v>
+        <v>0.076</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -683,19 +683,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lepidotrigla cavillone</t>
+          <t>Eutrigla gurnardus</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="G8">
-        <v>0.023</v>
+        <v>0.046</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -724,19 +724,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Microchirus ocellatus</t>
+          <t>Lepidotrigla cavillone</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MICUOCE</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="G9">
-        <v>0.038</v>
+        <v>0.023</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -765,19 +765,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mullus barbatus</t>
+          <t>Microchirus ocellatus</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>MICUOCE</t>
         </is>
       </c>
       <c r="G10">
-        <v>0.076</v>
+        <v>0.038</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -806,19 +806,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pagellus erythrinus</t>
+          <t>Mullus barbatus</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="G11">
-        <v>0.345</v>
+        <v>0.076</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -847,19 +847,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pecten jacobaeus</t>
+          <t>Pagellus erythrinus</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.795</v>
+        <v>0.345</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -888,19 +888,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Raja clavata</t>
+          <t>Pecten jacobaeus</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>RAJACLA</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="G13">
-        <v>3.42</v>
+        <v>0.795</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -929,19 +929,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Scorpaena notata</t>
+          <t>Raja clavata</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>RAJACLA</t>
         </is>
       </c>
       <c r="G14">
-        <v>0.896</v>
+        <v>3.42</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -970,19 +970,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Scorpaena scrofa</t>
+          <t>Scorpaena notata</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="G15">
-        <v>0.216</v>
+        <v>0.896</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1011,16 +1011,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Scyliorhinus canicula</t>
+          <t>Scorpaena scrofa</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SCYOCAN</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="G16">
-        <v>1.2</v>
+        <v>0.216</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1720,7 +1723,7 @@
         <v>10</v>
       </c>
       <c r="I33">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="34">
@@ -1761,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="35">
@@ -1802,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="I35">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="36">
@@ -1843,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="I36">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="37">
@@ -1884,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="38">
@@ -1910,22 +1913,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Arnoglossus thori</t>
+          <t>Ascidia mentula</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>ASCIMEN</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="39">
@@ -1951,22 +1954,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ascidia mentula</t>
+          <t>Ascidia sp</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ASCIMEN</t>
+          <t>ASCIDSP</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="40">
@@ -1992,22 +1995,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ascidia sp</t>
+          <t>Ascidiacea nd</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ASCIDSP</t>
+          <t>ASCIDND</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.003</v>
+        <v>0.22</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I40">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="41">
@@ -2033,22 +2036,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ascidiacea nd</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ASCIDND</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.22</v>
+        <v>1.729</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I41">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="42">
@@ -2074,22 +2077,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Bryozoa nd</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>BRYOZND</t>
         </is>
       </c>
       <c r="G42">
-        <v>1.729</v>
+        <v>0.003</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I42">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="43">
@@ -2115,22 +2118,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Bryozoa nd</t>
+          <t>Calyptraea chinensis</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>BRYOZND</t>
+          <t>CALICHI</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="44">
@@ -2156,22 +2159,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Calyptraea chinensis</t>
+          <t>Chlamys varia</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CALICHI</t>
+          <t>CHLAVAR</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="45">
@@ -2197,22 +2200,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Chlamys varia</t>
+          <t>Coralligenous concretions</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CHLAVAR</t>
+          <t>CORACON</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.008</v>
+        <v>0.189</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I45">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="46">
@@ -2238,22 +2241,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Coralligenous concretions</t>
+          <t>Dromia personata</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CORACON</t>
+          <t>DROMPER</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.189</v>
+        <v>0.008</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="47">
@@ -2279,22 +2282,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Dromia personata</t>
+          <t>Eggs of Scyliorhinus</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DROMPER</t>
+          <t>EGGSSCY</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="48">
@@ -2320,22 +2323,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Eggs of Scyliorhinus</t>
+          <t>Eurynome aspera</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>EGGSSCY</t>
+          <t>EURYASP</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I48">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="49">
@@ -2361,22 +2364,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Eurynome aspera</t>
+          <t>Galathea sp</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>EURYASP</t>
+          <t>GALATSP</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="H49">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="50">
@@ -2402,22 +2405,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Galathea sp</t>
+          <t>Holothuria forskali</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>GALATSP</t>
+          <t>HOLOFOR</t>
         </is>
       </c>
       <c r="G50">
-        <v>0.001</v>
+        <v>0.551</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I50">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="51">
@@ -2443,22 +2446,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Holothuria forskali</t>
+          <t>Holothuria tubulosa</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>HOLOFOR</t>
+          <t>HOLOTUB</t>
         </is>
       </c>
       <c r="G51">
-        <v>0.551</v>
+        <v>0.066</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="52">
@@ -2484,22 +2487,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Holothuria tubulosa</t>
+          <t>Inachus dorsettensis</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>HOLOTUB</t>
+          <t>INACDOR</t>
         </is>
       </c>
       <c r="G52">
-        <v>0.066</v>
+        <v>0.005</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="53">
@@ -2525,22 +2528,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Inachus dorsettensis</t>
+          <t>Laevicardium oblongum</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>INACDOR</t>
+          <t>LAEVCAR</t>
         </is>
       </c>
       <c r="G53">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="54">
@@ -2566,22 +2569,22 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Laevicardium oblongum</t>
+          <t>Macropodia rostrata</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>LAEVCAR</t>
+          <t>MACRROS</t>
         </is>
       </c>
       <c r="G54">
         <v>0.001</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="55">
@@ -2607,22 +2610,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Macropodia rostrata</t>
+          <t>Marthasterias glacialis</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MACRROS</t>
+          <t>MARTGLA</t>
         </is>
       </c>
       <c r="G55">
-        <v>0.001</v>
+        <v>0.074</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="56">
@@ -2648,22 +2651,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Marthasterias glacialis</t>
+          <t>Microcosmus sulcatus</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MARTGLA</t>
+          <t>MICSULC</t>
         </is>
       </c>
       <c r="G56">
-        <v>0.074</v>
+        <v>0.285</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="I56">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="57">
@@ -2689,22 +2692,22 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Microcosmus sulcatus</t>
+          <t>Nassarius nitidus</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MICSULC</t>
+          <t>NASSNIT</t>
         </is>
       </c>
       <c r="G57">
-        <v>0.285</v>
+        <v>0.001</v>
       </c>
       <c r="H57">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="58">
@@ -2730,22 +2733,22 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Nassarius nitidus</t>
+          <t>Ophiothrix fragilis</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NASSNIT</t>
+          <t>OPHIFRA</t>
         </is>
       </c>
       <c r="G58">
-        <v>0.001</v>
+        <v>0.344</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>430</v>
       </c>
       <c r="I58">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="59">
@@ -2771,22 +2774,22 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ophiothrix fragilis</t>
+          <t>Ophiotrix quinquemaculata</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>OPHIFRA</t>
+          <t>OPHIQUI</t>
         </is>
       </c>
       <c r="G59">
-        <v>0.344</v>
+        <v>0.152</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="I59">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="60">
@@ -2812,22 +2815,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ophiotrix quinquemaculata</t>
+          <t>Ophiura albida</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>OPHIQUI</t>
+          <t>OPHIALB</t>
         </is>
       </c>
       <c r="G60">
-        <v>0.152</v>
+        <v>0.002</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I60">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="61">
@@ -2853,22 +2856,22 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ophiura albida</t>
+          <t>Ophiura ophiura</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>OPHIALB</t>
+          <t>OPHIOPH</t>
         </is>
       </c>
       <c r="G61">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="H61">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I61">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="62">
@@ -2894,22 +2897,22 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Pagurus cuanensis</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>PAGUCUA</t>
         </is>
       </c>
       <c r="G62">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="H62">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="63">
@@ -2935,22 +2938,22 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Pagurus cuanensis</t>
+          <t>Pagurus prideauxi</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>PAGUCUA</t>
+          <t>PAGUPRI</t>
         </is>
       </c>
       <c r="G63">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="64">
@@ -2976,22 +2979,22 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Pagurus prideauxi</t>
+          <t>Parthenope massena</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>PAGUPRI</t>
+          <t>PARTMAS</t>
         </is>
       </c>
       <c r="G64">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="H64">
         <v>4</v>
       </c>
       <c r="I64">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="65">
@@ -3017,22 +3020,22 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Parthenope massena</t>
+          <t>Pilumnus spinifer</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>PARTMAS</t>
+          <t>PILUSPI</t>
         </is>
       </c>
       <c r="G65">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="66">
@@ -3058,22 +3061,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Pilumnus spinifer</t>
+          <t>Porifera nd</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>PILUSPI</t>
+          <t>PORIFND</t>
         </is>
       </c>
       <c r="G66">
-        <v>0.002</v>
+        <v>0.796</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I66">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="67">
@@ -3099,22 +3102,22 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Porifera nd</t>
+          <t>Psammechinus microtuberculatus</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PORIFND</t>
+          <t>PSAMMIC</t>
         </is>
       </c>
       <c r="G67">
-        <v>0.796</v>
+        <v>0.026</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I67">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="68">
@@ -3140,22 +3143,22 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Psammechinus microtuberculatus</t>
+          <t>Pteria hirundo</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>PSAMMIC</t>
+          <t>PTERHIR</t>
         </is>
       </c>
       <c r="G68">
-        <v>0.026</v>
+        <v>0.006</v>
       </c>
       <c r="H68">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="69">
@@ -3181,22 +3184,22 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Pteria hirundo</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>PTERHIR</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G69">
-        <v>0.006</v>
+        <v>0.59</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I69">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="70">
@@ -3222,22 +3225,22 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G70">
-        <v>0.59</v>
+        <v>0.15</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I70">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
     <row r="71">
@@ -3263,63 +3266,22 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Wood NA</t>
+          <t>Xanto pilipes</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>WOOD</t>
+          <t>XANTPHI</t>
         </is>
       </c>
       <c r="G71">
-        <v>0.15</v>
+        <v>0.001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>127.2132926829268</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Xanto pilipes</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>XANTPHI</t>
-        </is>
-      </c>
-      <c r="G72">
-        <v>0.001</v>
-      </c>
-      <c r="H72">
-        <v>2</v>
-      </c>
-      <c r="I72">
-        <v>127.2132926829268</v>
+        <v>127.3592682926829</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/catch/Catch_Trust_60.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_60.xlsx
@@ -449,7 +449,7 @@
         <v>3.938</v>
       </c>
       <c r="H2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="I2">
         <v>1</v>
